--- a/String_Pull_Training/430/Training_Log.xlsx
+++ b/String_Pull_Training/430/Training_Log.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Stephen\Desktop\String_Pull_Training\430\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Github_TimeCells\String_Pulling_System\String_Pull_Training\430\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C1F12D4-C7C4-4BB4-ACAE-3D008493BC1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12330"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,17 +20,6 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
@@ -649,7 +639,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -710,34 +700,26 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1051,11 +1033,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L72"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+      <selection activeCell="G74" sqref="G74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1065,7 +1047,7 @@
     <col min="5" max="5" width="16" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="16.5703125" customWidth="1"/>
     <col min="7" max="7" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.140625" style="8" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.140625" style="6" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="26.140625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="36.7109375" customWidth="1"/>
     <col min="11" max="11" width="19.85546875" customWidth="1"/>
@@ -1094,7 +1076,7 @@
       <c r="G1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="9" t="s">
+      <c r="H1" s="7" t="s">
         <v>7</v>
       </c>
       <c r="I1" s="2" t="s">
@@ -1107,246 +1089,242 @@
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:12" s="3" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="6">
+    <row r="2" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="5">
         <v>45001</v>
       </c>
-      <c r="B2" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="C2" s="3">
-        <v>430</v>
-      </c>
-      <c r="D2" s="3">
-        <v>1</v>
-      </c>
-      <c r="E2" s="3">
-        <v>1</v>
-      </c>
-      <c r="F2" s="3">
-        <v>1</v>
-      </c>
-      <c r="G2" s="3">
-        <v>1</v>
-      </c>
-      <c r="H2" s="10">
+      <c r="B2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C2">
+        <v>430</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+      <c r="G2">
+        <v>3</v>
+      </c>
+      <c r="H2" s="8">
         <v>0.2388888888888889</v>
       </c>
-      <c r="J2" s="3" t="s">
+      <c r="J2" t="s">
         <v>38</v>
       </c>
-      <c r="L2" s="4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="6">
+      <c r="L2" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" s="5">
         <v>45001</v>
       </c>
-      <c r="B3" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="C3" s="3">
-        <v>430</v>
-      </c>
-      <c r="D3" s="3">
-        <v>1</v>
-      </c>
-      <c r="E3" s="3">
-        <v>1</v>
-      </c>
-      <c r="F3" s="3">
-        <v>1</v>
-      </c>
-      <c r="G3" s="3">
-        <v>1</v>
-      </c>
-      <c r="H3" s="7" t="s">
+      <c r="B3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C3">
+        <v>430</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="G3">
+        <v>3</v>
+      </c>
+      <c r="H3" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="J3" s="3" t="s">
+      <c r="J3" t="s">
         <v>37</v>
       </c>
-      <c r="L3" s="5" t="s">
+      <c r="L3" s="4" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="6">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" s="5">
         <v>45001</v>
       </c>
-      <c r="B4" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="C4" s="3">
-        <v>430</v>
-      </c>
-      <c r="D4" s="3">
-        <v>1</v>
-      </c>
-      <c r="E4" s="3">
-        <v>1</v>
-      </c>
-      <c r="F4" s="3">
-        <v>1</v>
-      </c>
-      <c r="G4" s="3">
-        <v>1</v>
-      </c>
-      <c r="H4" s="7" t="s">
+      <c r="B4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C4">
+        <v>430</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4">
+        <v>3</v>
+      </c>
+      <c r="H4" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="L4" s="5" t="s">
+      <c r="L4" s="4" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="6">
+      <c r="A5" s="5">
         <v>45001</v>
       </c>
-      <c r="B5" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="C5" s="3">
-        <v>430</v>
-      </c>
-      <c r="D5" s="3">
-        <v>1</v>
-      </c>
-      <c r="E5" s="3">
-        <v>1</v>
-      </c>
-      <c r="F5" s="3">
-        <v>1</v>
-      </c>
-      <c r="G5" s="3">
-        <v>1</v>
-      </c>
-      <c r="H5" s="8" t="s">
+      <c r="B5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C5">
+        <v>430</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>3</v>
+      </c>
+      <c r="H5" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="J5" s="3" t="s">
+      <c r="J5" t="s">
         <v>35</v>
       </c>
-      <c r="L5" s="4" t="s">
+      <c r="L5" s="3" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="6">
+      <c r="A6" s="5">
         <v>45001</v>
       </c>
-      <c r="B6" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="C6" s="3">
-        <v>430</v>
-      </c>
-      <c r="D6" s="3">
-        <v>1</v>
-      </c>
-      <c r="E6" s="3">
-        <v>1</v>
-      </c>
-      <c r="F6" s="3">
-        <v>2</v>
-      </c>
-      <c r="G6" s="3"/>
-      <c r="H6" s="11"/>
+      <c r="B6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C6">
+        <v>430</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="H6" s="8"/>
       <c r="I6">
         <v>0</v>
       </c>
-      <c r="J6" s="3" t="s">
+      <c r="J6" t="s">
         <v>36</v>
       </c>
-      <c r="L6" s="4" t="s">
+      <c r="L6" s="3" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="6">
+      <c r="A7" s="5">
         <v>45001</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" t="s">
         <v>39</v>
       </c>
-      <c r="C7" s="3">
-        <v>430</v>
-      </c>
-      <c r="D7" s="3">
-        <v>1</v>
-      </c>
-      <c r="E7" s="3">
-        <v>2</v>
-      </c>
-      <c r="F7" s="3">
-        <v>1</v>
-      </c>
-      <c r="G7" s="3">
-        <v>1</v>
-      </c>
-      <c r="H7" s="11">
+      <c r="C7">
+        <v>430</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="E7">
+        <v>2</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>3</v>
+      </c>
+      <c r="H7" s="8">
         <v>0.11875000000000001</v>
       </c>
-      <c r="J7" s="3" t="s">
+      <c r="J7" t="s">
         <v>40</v>
       </c>
-      <c r="L7" s="4" t="s">
+      <c r="L7" s="3" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A8" s="6">
+      <c r="A8" s="5">
         <v>45001</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8" t="s">
         <v>39</v>
       </c>
-      <c r="C8" s="3">
-        <v>430</v>
-      </c>
-      <c r="D8" s="3">
-        <v>1</v>
-      </c>
-      <c r="E8" s="3">
+      <c r="C8">
+        <v>430</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+      <c r="E8">
         <v>2</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
-      <c r="G8" s="3">
-        <v>1</v>
-      </c>
-      <c r="H8" s="11">
+      <c r="G8">
+        <v>3</v>
+      </c>
+      <c r="H8" s="8">
         <v>0.10625</v>
       </c>
-      <c r="J8" s="3" t="s">
+      <c r="J8" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A9" s="6">
+      <c r="A9" s="5">
         <v>45001</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B9" t="s">
         <v>39</v>
       </c>
-      <c r="C9" s="3">
-        <v>430</v>
-      </c>
-      <c r="D9" s="3">
-        <v>1</v>
-      </c>
-      <c r="E9" s="3">
+      <c r="C9">
+        <v>430</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
+      <c r="E9">
         <v>2</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
-      <c r="G9" s="3">
-        <v>1</v>
-      </c>
-      <c r="H9" s="8" t="s">
+      <c r="G9">
+        <v>3</v>
+      </c>
+      <c r="H9" s="6" t="s">
         <v>41</v>
       </c>
       <c r="L9" s="2" t="s">
@@ -1354,28 +1332,28 @@
       </c>
     </row>
     <row r="10" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="6">
+      <c r="A10" s="5">
         <v>45001</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="B10" t="s">
         <v>39</v>
       </c>
-      <c r="C10" s="3">
-        <v>430</v>
-      </c>
-      <c r="D10" s="3">
-        <v>1</v>
-      </c>
-      <c r="E10" s="3">
+      <c r="C10">
+        <v>430</v>
+      </c>
+      <c r="D10">
+        <v>1</v>
+      </c>
+      <c r="E10">
         <v>2</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
-      <c r="G10" s="3">
-        <v>1</v>
-      </c>
-      <c r="H10" s="8" t="s">
+      <c r="G10">
+        <v>3</v>
+      </c>
+      <c r="H10" s="6" t="s">
         <v>42</v>
       </c>
       <c r="L10" s="1" t="s">
@@ -1383,28 +1361,28 @@
       </c>
     </row>
     <row r="11" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="6">
+      <c r="A11" s="5">
         <v>45001</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="B11" t="s">
         <v>39</v>
       </c>
-      <c r="C11" s="3">
-        <v>430</v>
-      </c>
-      <c r="D11" s="3">
-        <v>1</v>
-      </c>
-      <c r="E11" s="3">
+      <c r="C11">
+        <v>430</v>
+      </c>
+      <c r="D11">
+        <v>1</v>
+      </c>
+      <c r="E11">
         <v>2</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
-      <c r="G11" s="3">
-        <v>1</v>
-      </c>
-      <c r="H11" s="8" t="s">
+      <c r="G11">
+        <v>3</v>
+      </c>
+      <c r="H11" s="6" t="s">
         <v>43</v>
       </c>
       <c r="L11" s="1" t="s">
@@ -1412,28 +1390,28 @@
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A12" s="6">
+      <c r="A12" s="5">
         <v>45001</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="B12" t="s">
         <v>39</v>
       </c>
-      <c r="C12" s="3">
-        <v>430</v>
-      </c>
-      <c r="D12" s="3">
-        <v>1</v>
-      </c>
-      <c r="E12" s="3">
+      <c r="C12">
+        <v>430</v>
+      </c>
+      <c r="D12">
+        <v>1</v>
+      </c>
+      <c r="E12">
         <v>2</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
-      <c r="G12" s="3">
-        <v>2</v>
-      </c>
-      <c r="H12" s="8" t="s">
+      <c r="G12">
+        <v>12</v>
+      </c>
+      <c r="H12" s="6" t="s">
         <v>44</v>
       </c>
       <c r="L12" t="s">
@@ -1441,28 +1419,28 @@
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A13" s="6">
+      <c r="A13" s="5">
         <v>45001</v>
       </c>
-      <c r="B13" s="3" t="s">
+      <c r="B13" t="s">
         <v>39</v>
       </c>
-      <c r="C13" s="3">
-        <v>430</v>
-      </c>
-      <c r="D13" s="3">
-        <v>1</v>
-      </c>
-      <c r="E13" s="3">
+      <c r="C13">
+        <v>430</v>
+      </c>
+      <c r="D13">
+        <v>1</v>
+      </c>
+      <c r="E13">
         <v>2</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
-      <c r="G13" s="3">
-        <v>2</v>
-      </c>
-      <c r="H13" s="11">
+      <c r="G13">
+        <v>12</v>
+      </c>
+      <c r="H13" s="8">
         <v>0.11319444444444444</v>
       </c>
       <c r="J13" t="s">
@@ -1473,28 +1451,28 @@
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A14" s="6">
+      <c r="A14" s="5">
         <v>45001</v>
       </c>
-      <c r="B14" s="3" t="s">
+      <c r="B14" t="s">
         <v>39</v>
       </c>
-      <c r="C14" s="3">
-        <v>430</v>
-      </c>
-      <c r="D14" s="3">
-        <v>1</v>
-      </c>
-      <c r="E14" s="3">
+      <c r="C14">
+        <v>430</v>
+      </c>
+      <c r="D14">
+        <v>1</v>
+      </c>
+      <c r="E14">
         <v>2</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
-      <c r="G14" s="3">
-        <v>2</v>
-      </c>
-      <c r="H14" s="11">
+      <c r="G14">
+        <v>12</v>
+      </c>
+      <c r="H14" s="8">
         <v>0.10208333333333335</v>
       </c>
       <c r="J14" t="s">
@@ -1505,45 +1483,45 @@
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A15" s="6">
+      <c r="A15" s="5">
         <v>45001</v>
       </c>
-      <c r="B15" s="3" t="s">
+      <c r="B15" t="s">
         <v>39</v>
       </c>
-      <c r="C15" s="3">
-        <v>430</v>
-      </c>
-      <c r="D15" s="3">
-        <v>1</v>
-      </c>
-      <c r="E15" s="3">
+      <c r="C15">
+        <v>430</v>
+      </c>
+      <c r="D15">
+        <v>1</v>
+      </c>
+      <c r="E15">
         <v>2</v>
       </c>
       <c r="F15">
         <v>1</v>
+      </c>
+      <c r="G15">
+        <v>30</v>
       </c>
       <c r="J15" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A16" s="6">
+      <c r="A16" s="5">
         <v>45001</v>
       </c>
-      <c r="B16" s="3" t="s">
+      <c r="B16" t="s">
         <v>39</v>
       </c>
-      <c r="C16" s="3">
-        <v>430</v>
-      </c>
-      <c r="D16" s="3">
-        <v>1</v>
-      </c>
-      <c r="E16" s="3">
-        <v>2</v>
-      </c>
-      <c r="F16">
+      <c r="C16">
+        <v>430</v>
+      </c>
+      <c r="D16">
+        <v>1</v>
+      </c>
+      <c r="E16">
         <v>2</v>
       </c>
       <c r="I16">
@@ -1554,28 +1532,28 @@
       </c>
     </row>
     <row r="17" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="6">
+      <c r="A17" s="5">
         <v>45002</v>
       </c>
-      <c r="B17" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="C17" s="3">
-        <v>430</v>
-      </c>
-      <c r="D17" s="3">
-        <v>2</v>
-      </c>
-      <c r="E17" s="3">
+      <c r="B17" t="s">
+        <v>31</v>
+      </c>
+      <c r="C17">
+        <v>430</v>
+      </c>
+      <c r="D17">
+        <v>2</v>
+      </c>
+      <c r="E17">
         <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
-      <c r="G17" s="3">
-        <v>2</v>
-      </c>
-      <c r="H17" s="11">
+      <c r="G17">
+        <v>12</v>
+      </c>
+      <c r="H17" s="8">
         <v>7.9861111111111105E-2</v>
       </c>
       <c r="L17" s="1" t="s">
@@ -1583,60 +1561,60 @@
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A18" s="6">
+      <c r="A18" s="5">
         <v>45002</v>
       </c>
-      <c r="B18" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="C18" s="3">
-        <v>430</v>
-      </c>
-      <c r="D18" s="3">
-        <v>2</v>
-      </c>
-      <c r="E18" s="3">
+      <c r="B18" t="s">
+        <v>31</v>
+      </c>
+      <c r="C18">
+        <v>430</v>
+      </c>
+      <c r="D18">
+        <v>2</v>
+      </c>
+      <c r="E18">
         <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
-      <c r="G18" s="3">
-        <v>2</v>
-      </c>
-      <c r="H18" s="11">
+      <c r="G18">
+        <v>12</v>
+      </c>
+      <c r="H18" s="8">
         <v>0.14305555555555557</v>
       </c>
       <c r="J18" t="s">
         <v>47</v>
       </c>
-      <c r="L18" s="5" t="s">
+      <c r="L18" s="4" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A19" s="6">
+      <c r="A19" s="5">
         <v>45002</v>
       </c>
-      <c r="B19" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="C19" s="3">
-        <v>430</v>
-      </c>
-      <c r="D19" s="3">
-        <v>2</v>
-      </c>
-      <c r="E19" s="3">
+      <c r="B19" t="s">
+        <v>31</v>
+      </c>
+      <c r="C19">
+        <v>430</v>
+      </c>
+      <c r="D19">
+        <v>2</v>
+      </c>
+      <c r="E19">
         <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
-      <c r="G19" s="3">
-        <v>2</v>
-      </c>
-      <c r="H19" s="8" t="s">
+      <c r="G19">
+        <v>12</v>
+      </c>
+      <c r="H19" s="6" t="s">
         <v>32</v>
       </c>
       <c r="L19" t="s">
@@ -1644,139 +1622,131 @@
       </c>
     </row>
     <row r="20" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A20" s="6">
+      <c r="A20" s="5">
         <v>45002</v>
       </c>
-      <c r="B20" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="C20" s="3">
-        <v>430</v>
-      </c>
-      <c r="D20" s="3">
-        <v>2</v>
-      </c>
-      <c r="E20" s="3">
+      <c r="B20" t="s">
+        <v>31</v>
+      </c>
+      <c r="C20">
+        <v>430</v>
+      </c>
+      <c r="D20">
+        <v>2</v>
+      </c>
+      <c r="E20">
         <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
-      <c r="G20" s="3">
+      <c r="G20">
+        <v>30</v>
+      </c>
+      <c r="H20" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="L20" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A21" s="5">
+        <v>45002</v>
+      </c>
+      <c r="B21" t="s">
+        <v>31</v>
+      </c>
+      <c r="C21">
+        <v>430</v>
+      </c>
+      <c r="D21">
+        <v>2</v>
+      </c>
+      <c r="E21">
         <v>3</v>
       </c>
-      <c r="H20" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="L20" s="4" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A21" s="6">
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>30</v>
+      </c>
+      <c r="H21" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="L21" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A22" s="5">
         <v>45002</v>
       </c>
-      <c r="B21" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="C21" s="3">
-        <v>430</v>
-      </c>
-      <c r="D21" s="3">
-        <v>2</v>
-      </c>
-      <c r="E21" s="3">
+      <c r="B22" t="s">
+        <v>31</v>
+      </c>
+      <c r="C22">
+        <v>430</v>
+      </c>
+      <c r="D22">
+        <v>2</v>
+      </c>
+      <c r="E22">
         <v>3</v>
       </c>
-      <c r="F21">
-        <v>1</v>
-      </c>
-      <c r="G21" s="3">
-        <v>3</v>
-      </c>
-      <c r="H21" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="L21" s="4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A22" s="6">
-        <v>45002</v>
-      </c>
-      <c r="B22" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="C22" s="3">
-        <v>430</v>
-      </c>
-      <c r="D22" s="3">
-        <v>2</v>
-      </c>
-      <c r="E22" s="3">
-        <v>3</v>
-      </c>
       <c r="F22">
         <v>1</v>
       </c>
-      <c r="G22" s="3">
-        <v>3</v>
-      </c>
-      <c r="H22" s="8" t="s">
+      <c r="G22">
+        <v>30</v>
+      </c>
+      <c r="H22" s="6" t="s">
         <v>33</v>
       </c>
       <c r="J22" t="s">
         <v>50</v>
       </c>
-      <c r="L22" s="4" t="s">
+      <c r="L22" s="3" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A23" s="6">
+      <c r="A23" s="5">
         <v>45002</v>
       </c>
-      <c r="B23" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="C23" s="3">
-        <v>430</v>
-      </c>
-      <c r="D23" s="3">
-        <v>2</v>
-      </c>
-      <c r="E23" s="3">
+      <c r="B23" t="s">
+        <v>31</v>
+      </c>
+      <c r="C23">
+        <v>430</v>
+      </c>
+      <c r="D23">
+        <v>2</v>
+      </c>
+      <c r="E23">
         <v>3</v>
       </c>
-      <c r="F23">
-        <v>2</v>
-      </c>
-      <c r="G23" s="3"/>
       <c r="J23" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A24" s="6">
+      <c r="A24" s="5">
         <v>45002</v>
       </c>
-      <c r="B24" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="C24" s="3">
-        <v>430</v>
-      </c>
-      <c r="D24" s="3">
-        <v>2</v>
-      </c>
-      <c r="E24" s="3">
+      <c r="B24" t="s">
+        <v>31</v>
+      </c>
+      <c r="C24">
+        <v>430</v>
+      </c>
+      <c r="D24">
+        <v>2</v>
+      </c>
+      <c r="E24">
         <v>3</v>
       </c>
-      <c r="F24">
-        <v>2</v>
-      </c>
-      <c r="G24" s="3"/>
       <c r="J24" t="s">
         <v>51</v>
       </c>
@@ -1785,25 +1755,21 @@
       </c>
     </row>
     <row r="25" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A25" s="6">
+      <c r="A25" s="5">
         <v>45002</v>
       </c>
-      <c r="B25" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="C25" s="3">
-        <v>430</v>
-      </c>
-      <c r="D25" s="3">
-        <v>2</v>
-      </c>
-      <c r="E25" s="3">
+      <c r="B25" t="s">
+        <v>31</v>
+      </c>
+      <c r="C25">
+        <v>430</v>
+      </c>
+      <c r="D25">
+        <v>2</v>
+      </c>
+      <c r="E25">
         <v>3</v>
       </c>
-      <c r="F25">
-        <v>2</v>
-      </c>
-      <c r="G25" s="3"/>
       <c r="I25">
         <v>1</v>
       </c>
@@ -1815,28 +1781,28 @@
       </c>
     </row>
     <row r="26" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A26" s="6">
+      <c r="A26" s="5">
         <v>45002</v>
       </c>
-      <c r="B26" s="3" t="s">
+      <c r="B26" t="s">
         <v>54</v>
       </c>
-      <c r="C26" s="3">
-        <v>430</v>
-      </c>
-      <c r="D26" s="3">
-        <v>2</v>
-      </c>
-      <c r="E26" s="3">
+      <c r="C26">
+        <v>430</v>
+      </c>
+      <c r="D26">
+        <v>2</v>
+      </c>
+      <c r="E26">
         <v>4</v>
       </c>
       <c r="F26">
         <v>1</v>
       </c>
-      <c r="G26" s="3">
-        <v>1</v>
-      </c>
-      <c r="H26" s="8" t="s">
+      <c r="G26">
+        <v>3</v>
+      </c>
+      <c r="H26" s="6" t="s">
         <v>55</v>
       </c>
       <c r="L26" s="1" t="s">
@@ -1844,28 +1810,28 @@
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A27" s="6">
+      <c r="A27" s="5">
         <v>45002</v>
       </c>
-      <c r="B27" s="3" t="s">
+      <c r="B27" t="s">
         <v>54</v>
       </c>
-      <c r="C27" s="3">
-        <v>430</v>
-      </c>
-      <c r="D27" s="3">
-        <v>2</v>
-      </c>
-      <c r="E27" s="3">
+      <c r="C27">
+        <v>430</v>
+      </c>
+      <c r="D27">
+        <v>2</v>
+      </c>
+      <c r="E27">
         <v>4</v>
       </c>
       <c r="F27">
         <v>1</v>
       </c>
-      <c r="G27" s="3">
-        <v>1</v>
-      </c>
-      <c r="H27" s="8" t="s">
+      <c r="G27">
+        <v>3</v>
+      </c>
+      <c r="H27" s="6" t="s">
         <v>56</v>
       </c>
       <c r="L27" t="s">
@@ -1873,28 +1839,28 @@
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A28" s="6">
+      <c r="A28" s="5">
         <v>45002</v>
       </c>
-      <c r="B28" s="3" t="s">
+      <c r="B28" t="s">
         <v>54</v>
       </c>
-      <c r="C28" s="3">
-        <v>430</v>
-      </c>
-      <c r="D28" s="3">
-        <v>2</v>
-      </c>
-      <c r="E28" s="3">
+      <c r="C28">
+        <v>430</v>
+      </c>
+      <c r="D28">
+        <v>2</v>
+      </c>
+      <c r="E28">
         <v>4</v>
       </c>
       <c r="F28">
         <v>1</v>
       </c>
-      <c r="G28" s="3">
-        <v>1</v>
-      </c>
-      <c r="H28" s="8" t="s">
+      <c r="G28">
+        <v>3</v>
+      </c>
+      <c r="H28" s="6" t="s">
         <v>57</v>
       </c>
       <c r="L28" t="s">
@@ -1902,28 +1868,28 @@
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A29" s="6">
+      <c r="A29" s="5">
         <v>45002</v>
       </c>
-      <c r="B29" s="3" t="s">
+      <c r="B29" t="s">
         <v>54</v>
       </c>
-      <c r="C29" s="3">
-        <v>430</v>
-      </c>
-      <c r="D29" s="3">
-        <v>2</v>
-      </c>
-      <c r="E29" s="3">
+      <c r="C29">
+        <v>430</v>
+      </c>
+      <c r="D29">
+        <v>2</v>
+      </c>
+      <c r="E29">
         <v>4</v>
       </c>
       <c r="F29">
         <v>1</v>
       </c>
-      <c r="G29" s="3">
-        <v>2</v>
-      </c>
-      <c r="H29" s="8" t="s">
+      <c r="G29">
+        <v>12</v>
+      </c>
+      <c r="H29" s="6" t="s">
         <v>58</v>
       </c>
       <c r="L29" t="s">
@@ -1931,132 +1897,132 @@
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A30" s="6">
+      <c r="A30" s="5">
         <v>45002</v>
       </c>
-      <c r="B30" s="3" t="s">
+      <c r="B30" t="s">
         <v>54</v>
       </c>
-      <c r="C30" s="3">
-        <v>430</v>
-      </c>
-      <c r="D30" s="3">
-        <v>2</v>
-      </c>
-      <c r="E30" s="3">
+      <c r="C30">
+        <v>430</v>
+      </c>
+      <c r="D30">
+        <v>2</v>
+      </c>
+      <c r="E30">
         <v>4</v>
       </c>
       <c r="F30">
         <v>1</v>
       </c>
-      <c r="G30" s="3">
-        <v>2</v>
-      </c>
-      <c r="H30" s="8" t="s">
+      <c r="G30">
+        <v>12</v>
+      </c>
+      <c r="H30" s="6" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A31" s="6">
+      <c r="A31" s="5">
         <v>45002</v>
       </c>
-      <c r="B31" s="3" t="s">
+      <c r="B31" t="s">
         <v>54</v>
       </c>
-      <c r="C31" s="3">
-        <v>430</v>
-      </c>
-      <c r="D31" s="3">
-        <v>2</v>
-      </c>
-      <c r="E31" s="3">
+      <c r="C31">
+        <v>430</v>
+      </c>
+      <c r="D31">
+        <v>2</v>
+      </c>
+      <c r="E31">
         <v>4</v>
       </c>
       <c r="F31">
         <v>1</v>
       </c>
-      <c r="G31" s="3">
-        <v>2</v>
-      </c>
-      <c r="H31" s="8" t="s">
+      <c r="G31">
+        <v>12</v>
+      </c>
+      <c r="H31" s="6" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A32" s="6">
+      <c r="A32" s="5">
         <v>45002</v>
       </c>
-      <c r="B32" s="3" t="s">
+      <c r="B32" t="s">
         <v>54</v>
       </c>
-      <c r="C32" s="3">
-        <v>430</v>
-      </c>
-      <c r="D32" s="3">
-        <v>2</v>
-      </c>
-      <c r="E32" s="3">
+      <c r="C32">
+        <v>430</v>
+      </c>
+      <c r="D32">
+        <v>2</v>
+      </c>
+      <c r="E32">
         <v>4</v>
       </c>
       <c r="F32">
         <v>1</v>
       </c>
-      <c r="G32" s="3">
-        <v>3</v>
-      </c>
-      <c r="H32" s="8" t="s">
+      <c r="G32">
+        <v>30</v>
+      </c>
+      <c r="H32" s="6" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A33" s="6">
+      <c r="A33" s="5">
         <v>45002</v>
       </c>
-      <c r="B33" s="3" t="s">
+      <c r="B33" t="s">
         <v>54</v>
       </c>
-      <c r="C33" s="3">
-        <v>430</v>
-      </c>
-      <c r="D33" s="3">
-        <v>2</v>
-      </c>
-      <c r="E33" s="3">
+      <c r="C33">
+        <v>430</v>
+      </c>
+      <c r="D33">
+        <v>2</v>
+      </c>
+      <c r="E33">
         <v>4</v>
       </c>
       <c r="F33">
         <v>1</v>
       </c>
-      <c r="G33" s="3">
-        <v>3</v>
-      </c>
-      <c r="H33" s="8" t="s">
+      <c r="G33">
+        <v>30</v>
+      </c>
+      <c r="H33" s="6" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A34" s="6">
+      <c r="A34" s="5">
         <v>45002</v>
       </c>
-      <c r="B34" s="3" t="s">
+      <c r="B34" t="s">
         <v>54</v>
       </c>
-      <c r="C34" s="3">
-        <v>430</v>
-      </c>
-      <c r="D34" s="3">
-        <v>2</v>
-      </c>
-      <c r="E34" s="3">
+      <c r="C34">
+        <v>430</v>
+      </c>
+      <c r="D34">
+        <v>2</v>
+      </c>
+      <c r="E34">
         <v>4</v>
       </c>
       <c r="F34">
         <v>1</v>
       </c>
-      <c r="G34" s="3">
-        <v>3</v>
-      </c>
-      <c r="H34" s="8" t="s">
+      <c r="G34">
+        <v>30</v>
+      </c>
+      <c r="H34" s="6" t="s">
         <v>56</v>
       </c>
       <c r="J34" t="s">
@@ -2064,23 +2030,20 @@
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A35" s="12">
+      <c r="A35" s="5">
         <v>45002</v>
       </c>
-      <c r="B35" s="3" t="s">
+      <c r="B35" t="s">
         <v>54</v>
       </c>
-      <c r="C35" s="3">
-        <v>430</v>
-      </c>
-      <c r="D35" s="3">
-        <v>2</v>
-      </c>
-      <c r="E35" s="3">
+      <c r="C35">
+        <v>430</v>
+      </c>
+      <c r="D35">
+        <v>2</v>
+      </c>
+      <c r="E35">
         <v>4</v>
-      </c>
-      <c r="F35">
-        <v>2</v>
       </c>
       <c r="I35">
         <v>4</v>
@@ -2090,23 +2053,20 @@
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A36" s="12">
+      <c r="A36" s="5">
         <v>45007</v>
       </c>
-      <c r="B36" s="3" t="s">
+      <c r="B36" t="s">
         <v>64</v>
       </c>
-      <c r="C36" s="3">
-        <v>430</v>
-      </c>
-      <c r="D36" s="3">
+      <c r="C36">
+        <v>430</v>
+      </c>
+      <c r="D36">
         <v>3</v>
       </c>
-      <c r="E36" s="3">
+      <c r="E36">
         <v>5</v>
-      </c>
-      <c r="F36">
-        <v>2</v>
       </c>
       <c r="I36">
         <v>3</v>
@@ -2116,25 +2076,21 @@
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A37" s="12">
+      <c r="A37" s="5">
         <v>45008</v>
       </c>
-      <c r="B37" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="C37" s="3">
-        <v>430</v>
-      </c>
-      <c r="D37" s="3">
+      <c r="B37" t="s">
+        <v>31</v>
+      </c>
+      <c r="C37">
+        <v>430</v>
+      </c>
+      <c r="D37">
         <v>4</v>
       </c>
-      <c r="E37" s="3">
+      <c r="E37">
         <v>6</v>
       </c>
-      <c r="F37">
-        <v>2</v>
-      </c>
-      <c r="G37" s="3"/>
       <c r="I37">
         <v>4</v>
       </c>
@@ -2143,23 +2099,20 @@
       </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A38" s="12">
+      <c r="A38" s="5">
         <v>45008</v>
       </c>
-      <c r="B38" s="3" t="s">
+      <c r="B38" t="s">
         <v>68</v>
       </c>
-      <c r="C38" s="3">
-        <v>430</v>
-      </c>
-      <c r="D38" s="3">
+      <c r="C38">
+        <v>430</v>
+      </c>
+      <c r="D38">
         <v>4</v>
       </c>
-      <c r="E38" s="3">
+      <c r="E38">
         <v>7</v>
-      </c>
-      <c r="F38">
-        <v>2</v>
       </c>
       <c r="I38">
         <v>7</v>
@@ -2169,23 +2122,20 @@
       </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A39" s="12">
+      <c r="A39" s="5">
         <v>45009</v>
       </c>
-      <c r="B39" s="3" t="s">
+      <c r="B39" t="s">
         <v>54</v>
       </c>
-      <c r="C39" s="3">
-        <v>430</v>
-      </c>
-      <c r="D39" s="3">
+      <c r="C39">
+        <v>430</v>
+      </c>
+      <c r="D39">
         <v>5</v>
       </c>
-      <c r="E39" s="3">
-        <v>8</v>
-      </c>
-      <c r="F39">
-        <v>2</v>
+      <c r="E39">
+        <v>8</v>
       </c>
       <c r="I39">
         <v>18</v>
@@ -2195,26 +2145,22 @@
       </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A40" s="12">
+      <c r="A40" s="5">
         <v>45009</v>
       </c>
-      <c r="B40" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="C40" s="3">
-        <v>430</v>
-      </c>
-      <c r="D40" s="3">
+      <c r="B40" t="s">
+        <v>31</v>
+      </c>
+      <c r="C40">
+        <v>430</v>
+      </c>
+      <c r="D40">
         <v>6</v>
       </c>
-      <c r="E40" s="3">
+      <c r="E40">
         <v>9</v>
       </c>
-      <c r="F40">
-        <v>2</v>
-      </c>
-      <c r="G40" s="3"/>
-      <c r="I40" s="3">
+      <c r="I40">
         <v>25</v>
       </c>
       <c r="J40" t="s">
@@ -2222,25 +2168,22 @@
       </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A41" s="12">
+      <c r="A41" s="5">
         <v>45014</v>
       </c>
-      <c r="B41" s="3" t="s">
+      <c r="B41" t="s">
         <v>72</v>
       </c>
-      <c r="C41" s="3">
-        <v>430</v>
-      </c>
-      <c r="D41" s="3">
+      <c r="C41">
+        <v>430</v>
+      </c>
+      <c r="D41">
         <v>7</v>
       </c>
-      <c r="E41" s="3">
+      <c r="E41">
         <v>10</v>
       </c>
-      <c r="F41">
-        <v>2</v>
-      </c>
-      <c r="I41" s="3">
+      <c r="I41">
         <v>5</v>
       </c>
       <c r="J41" t="s">
@@ -2248,23 +2191,20 @@
       </c>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A42" s="12">
-        <v>45015</v>
-      </c>
-      <c r="B42" s="3" t="s">
+      <c r="A42" s="5">
+        <v>45015</v>
+      </c>
+      <c r="B42" t="s">
         <v>54</v>
       </c>
-      <c r="C42" s="3">
-        <v>430</v>
-      </c>
-      <c r="D42" s="3">
-        <v>8</v>
-      </c>
-      <c r="E42" s="3">
+      <c r="C42">
+        <v>430</v>
+      </c>
+      <c r="D42">
+        <v>8</v>
+      </c>
+      <c r="E42">
         <v>11</v>
-      </c>
-      <c r="F42">
-        <v>2</v>
       </c>
       <c r="I42">
         <v>40</v>
@@ -2274,720 +2214,720 @@
       </c>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A43" s="12">
-        <v>45015</v>
-      </c>
-      <c r="B43" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="C43" s="3">
-        <v>430</v>
-      </c>
-      <c r="D43" s="3">
-        <v>8</v>
-      </c>
-      <c r="E43" s="3">
+      <c r="A43" s="5">
+        <v>45015</v>
+      </c>
+      <c r="B43" t="s">
+        <v>31</v>
+      </c>
+      <c r="C43">
+        <v>430</v>
+      </c>
+      <c r="D43">
+        <v>8</v>
+      </c>
+      <c r="E43">
         <v>12</v>
       </c>
       <c r="F43">
         <v>2</v>
       </c>
-      <c r="G43" s="3">
-        <v>1</v>
+      <c r="G43">
+        <v>5</v>
       </c>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A44" s="12">
-        <v>45015</v>
-      </c>
-      <c r="B44" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="C44" s="3">
-        <v>430</v>
-      </c>
-      <c r="D44" s="3">
-        <v>8</v>
-      </c>
-      <c r="E44" s="3">
+      <c r="A44" s="5">
+        <v>45015</v>
+      </c>
+      <c r="B44" t="s">
+        <v>31</v>
+      </c>
+      <c r="C44">
+        <v>430</v>
+      </c>
+      <c r="D44">
+        <v>8</v>
+      </c>
+      <c r="E44">
         <v>12</v>
       </c>
       <c r="F44">
         <v>2</v>
       </c>
-      <c r="G44" s="3">
-        <v>1</v>
+      <c r="G44">
+        <v>5</v>
       </c>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A45" s="12">
-        <v>45015</v>
-      </c>
-      <c r="B45" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="C45" s="3">
-        <v>430</v>
-      </c>
-      <c r="D45" s="3">
-        <v>8</v>
-      </c>
-      <c r="E45" s="3">
+      <c r="A45" s="5">
+        <v>45015</v>
+      </c>
+      <c r="B45" t="s">
+        <v>31</v>
+      </c>
+      <c r="C45">
+        <v>430</v>
+      </c>
+      <c r="D45">
+        <v>8</v>
+      </c>
+      <c r="E45">
         <v>12</v>
       </c>
       <c r="F45">
         <v>2</v>
       </c>
-      <c r="G45" s="3">
-        <v>1</v>
+      <c r="G45">
+        <v>5</v>
       </c>
       <c r="J45" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A46" s="12">
-        <v>45015</v>
-      </c>
-      <c r="B46" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="C46" s="3">
-        <v>430</v>
-      </c>
-      <c r="D46" s="3">
-        <v>8</v>
-      </c>
-      <c r="E46" s="3">
+      <c r="A46" s="5">
+        <v>45015</v>
+      </c>
+      <c r="B46" t="s">
+        <v>31</v>
+      </c>
+      <c r="C46">
+        <v>430</v>
+      </c>
+      <c r="D46">
+        <v>8</v>
+      </c>
+      <c r="E46">
         <v>12</v>
       </c>
       <c r="F46">
         <v>2</v>
       </c>
       <c r="G46">
-        <v>2</v>
+        <v>15</v>
       </c>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A47" s="12">
-        <v>45015</v>
-      </c>
-      <c r="B47" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="C47" s="3">
-        <v>430</v>
-      </c>
-      <c r="D47" s="3">
-        <v>8</v>
-      </c>
-      <c r="E47" s="3">
+      <c r="A47" s="5">
+        <v>45015</v>
+      </c>
+      <c r="B47" t="s">
+        <v>31</v>
+      </c>
+      <c r="C47">
+        <v>430</v>
+      </c>
+      <c r="D47">
+        <v>8</v>
+      </c>
+      <c r="E47">
         <v>12</v>
       </c>
       <c r="F47">
         <v>2</v>
       </c>
       <c r="G47">
-        <v>2</v>
+        <v>15</v>
       </c>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A48" s="12">
-        <v>45015</v>
-      </c>
-      <c r="B48" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="C48" s="3">
-        <v>430</v>
-      </c>
-      <c r="D48" s="3">
-        <v>8</v>
-      </c>
-      <c r="E48" s="3">
+      <c r="A48" s="5">
+        <v>45015</v>
+      </c>
+      <c r="B48" t="s">
+        <v>31</v>
+      </c>
+      <c r="C48">
+        <v>430</v>
+      </c>
+      <c r="D48">
+        <v>8</v>
+      </c>
+      <c r="E48">
         <v>12</v>
       </c>
       <c r="F48">
         <v>2</v>
       </c>
       <c r="G48">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="J48" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A49" s="12">
-        <v>45015</v>
-      </c>
-      <c r="B49" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="C49" s="3">
-        <v>430</v>
-      </c>
-      <c r="D49" s="3">
-        <v>8</v>
-      </c>
-      <c r="E49" s="3">
+      <c r="A49" s="5">
+        <v>45015</v>
+      </c>
+      <c r="B49" t="s">
+        <v>31</v>
+      </c>
+      <c r="C49">
+        <v>430</v>
+      </c>
+      <c r="D49">
+        <v>8</v>
+      </c>
+      <c r="E49">
         <v>12</v>
       </c>
       <c r="F49">
         <v>2</v>
       </c>
       <c r="G49">
-        <v>3</v>
+        <v>30</v>
       </c>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A50" s="12">
-        <v>45015</v>
-      </c>
-      <c r="B50" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="C50" s="3">
-        <v>430</v>
-      </c>
-      <c r="D50" s="3">
-        <v>8</v>
-      </c>
-      <c r="E50" s="3">
+      <c r="A50" s="5">
+        <v>45015</v>
+      </c>
+      <c r="B50" t="s">
+        <v>31</v>
+      </c>
+      <c r="C50">
+        <v>430</v>
+      </c>
+      <c r="D50">
+        <v>8</v>
+      </c>
+      <c r="E50">
         <v>12</v>
       </c>
       <c r="F50">
         <v>2</v>
       </c>
       <c r="G50">
-        <v>3</v>
+        <v>30</v>
       </c>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A51" s="12">
-        <v>45015</v>
-      </c>
-      <c r="B51" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="C51" s="3">
-        <v>430</v>
-      </c>
-      <c r="D51" s="3">
-        <v>8</v>
-      </c>
-      <c r="E51" s="3">
+      <c r="A51" s="5">
+        <v>45015</v>
+      </c>
+      <c r="B51" t="s">
+        <v>31</v>
+      </c>
+      <c r="C51">
+        <v>430</v>
+      </c>
+      <c r="D51">
+        <v>8</v>
+      </c>
+      <c r="E51">
         <v>12</v>
       </c>
       <c r="F51">
         <v>2</v>
       </c>
       <c r="G51">
-        <v>3</v>
+        <v>30</v>
       </c>
       <c r="J51" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A52" s="12">
-        <v>45015</v>
-      </c>
-      <c r="B52" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="C52" s="3">
-        <v>430</v>
-      </c>
-      <c r="D52" s="3">
-        <v>8</v>
-      </c>
-      <c r="E52" s="3">
+      <c r="A52" s="5">
+        <v>45015</v>
+      </c>
+      <c r="B52" t="s">
+        <v>31</v>
+      </c>
+      <c r="C52">
+        <v>430</v>
+      </c>
+      <c r="D52">
+        <v>8</v>
+      </c>
+      <c r="E52">
         <v>12</v>
       </c>
       <c r="F52">
         <v>2</v>
       </c>
       <c r="G52">
-        <v>4</v>
+        <v>50</v>
       </c>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A53" s="12">
-        <v>45015</v>
-      </c>
-      <c r="B53" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="C53" s="3">
-        <v>430</v>
-      </c>
-      <c r="D53" s="3">
-        <v>8</v>
-      </c>
-      <c r="E53" s="3">
+      <c r="A53" s="5">
+        <v>45015</v>
+      </c>
+      <c r="B53" t="s">
+        <v>31</v>
+      </c>
+      <c r="C53">
+        <v>430</v>
+      </c>
+      <c r="D53">
+        <v>8</v>
+      </c>
+      <c r="E53">
         <v>12</v>
       </c>
       <c r="F53">
         <v>2</v>
       </c>
       <c r="G53">
-        <v>4</v>
+        <v>50</v>
       </c>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A54" s="12">
-        <v>45015</v>
-      </c>
-      <c r="B54" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="C54" s="3">
-        <v>430</v>
-      </c>
-      <c r="D54" s="3">
-        <v>8</v>
-      </c>
-      <c r="E54" s="3">
+      <c r="A54" s="5">
+        <v>45015</v>
+      </c>
+      <c r="B54" t="s">
+        <v>31</v>
+      </c>
+      <c r="C54">
+        <v>430</v>
+      </c>
+      <c r="D54">
+        <v>8</v>
+      </c>
+      <c r="E54">
         <v>12</v>
       </c>
       <c r="F54">
         <v>2</v>
       </c>
       <c r="G54">
-        <v>4</v>
+        <v>50</v>
       </c>
       <c r="J54" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A55" s="12">
-        <v>45015</v>
-      </c>
-      <c r="B55" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="C55" s="3">
-        <v>430</v>
-      </c>
-      <c r="D55" s="3">
-        <v>8</v>
-      </c>
-      <c r="E55" s="3">
+      <c r="A55" s="5">
+        <v>45015</v>
+      </c>
+      <c r="B55" t="s">
+        <v>31</v>
+      </c>
+      <c r="C55">
+        <v>430</v>
+      </c>
+      <c r="D55">
+        <v>8</v>
+      </c>
+      <c r="E55">
         <v>12</v>
       </c>
       <c r="F55">
         <v>2</v>
       </c>
       <c r="G55">
-        <v>5</v>
+        <v>75</v>
       </c>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A56" s="12">
-        <v>45015</v>
-      </c>
-      <c r="B56" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="C56" s="3">
-        <v>430</v>
-      </c>
-      <c r="D56" s="3">
-        <v>8</v>
-      </c>
-      <c r="E56" s="3">
+      <c r="A56" s="5">
+        <v>45015</v>
+      </c>
+      <c r="B56" t="s">
+        <v>31</v>
+      </c>
+      <c r="C56">
+        <v>430</v>
+      </c>
+      <c r="D56">
+        <v>8</v>
+      </c>
+      <c r="E56">
         <v>12</v>
       </c>
       <c r="F56">
         <v>2</v>
       </c>
       <c r="G56">
-        <v>5</v>
+        <v>75</v>
       </c>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A57" s="12">
-        <v>45015</v>
-      </c>
-      <c r="B57" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="C57" s="3">
-        <v>430</v>
-      </c>
-      <c r="D57" s="3">
-        <v>8</v>
-      </c>
-      <c r="E57" s="3">
+      <c r="A57" s="5">
+        <v>45015</v>
+      </c>
+      <c r="B57" t="s">
+        <v>31</v>
+      </c>
+      <c r="C57">
+        <v>430</v>
+      </c>
+      <c r="D57">
+        <v>8</v>
+      </c>
+      <c r="E57">
         <v>12</v>
       </c>
       <c r="F57">
         <v>2</v>
       </c>
       <c r="G57">
-        <v>5</v>
+        <v>75</v>
       </c>
       <c r="J57" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A58" s="12">
-        <v>45015</v>
-      </c>
-      <c r="B58" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="C58" s="3">
-        <v>430</v>
-      </c>
-      <c r="D58" s="3">
-        <v>8</v>
-      </c>
-      <c r="E58" s="3">
+      <c r="A58" s="5">
+        <v>45015</v>
+      </c>
+      <c r="B58" t="s">
+        <v>31</v>
+      </c>
+      <c r="C58">
+        <v>430</v>
+      </c>
+      <c r="D58">
+        <v>8</v>
+      </c>
+      <c r="E58">
         <v>12</v>
       </c>
       <c r="F58">
         <v>2</v>
       </c>
       <c r="G58">
-        <v>6</v>
+        <v>100</v>
       </c>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A59" s="12">
-        <v>45015</v>
-      </c>
-      <c r="B59" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="C59" s="3">
-        <v>430</v>
-      </c>
-      <c r="D59" s="3">
-        <v>8</v>
-      </c>
-      <c r="E59" s="3">
+      <c r="A59" s="5">
+        <v>45015</v>
+      </c>
+      <c r="B59" t="s">
+        <v>31</v>
+      </c>
+      <c r="C59">
+        <v>430</v>
+      </c>
+      <c r="D59">
+        <v>8</v>
+      </c>
+      <c r="E59">
         <v>12</v>
       </c>
       <c r="F59">
         <v>2</v>
       </c>
       <c r="G59">
-        <v>6</v>
+        <v>100</v>
       </c>
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A60" s="12">
-        <v>45015</v>
-      </c>
-      <c r="B60" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="C60" s="3">
-        <v>430</v>
-      </c>
-      <c r="D60" s="3">
-        <v>8</v>
-      </c>
-      <c r="E60" s="3">
+      <c r="A60" s="5">
+        <v>45015</v>
+      </c>
+      <c r="B60" t="s">
+        <v>31</v>
+      </c>
+      <c r="C60">
+        <v>430</v>
+      </c>
+      <c r="D60">
+        <v>8</v>
+      </c>
+      <c r="E60">
         <v>12</v>
       </c>
       <c r="F60">
         <v>2</v>
       </c>
       <c r="G60">
-        <v>6</v>
+        <v>100</v>
       </c>
       <c r="J60" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A61" s="12">
-        <v>45015</v>
-      </c>
-      <c r="B61" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="C61" s="3">
-        <v>430</v>
-      </c>
-      <c r="D61" s="3">
-        <v>8</v>
-      </c>
-      <c r="E61" s="3">
+      <c r="A61" s="5">
+        <v>45015</v>
+      </c>
+      <c r="B61" t="s">
+        <v>31</v>
+      </c>
+      <c r="C61">
+        <v>430</v>
+      </c>
+      <c r="D61">
+        <v>8</v>
+      </c>
+      <c r="E61">
         <v>12</v>
       </c>
       <c r="F61">
         <v>2</v>
       </c>
       <c r="G61">
-        <v>7</v>
+        <v>145</v>
       </c>
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A62" s="12">
-        <v>45015</v>
-      </c>
-      <c r="B62" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="C62" s="3">
-        <v>430</v>
-      </c>
-      <c r="D62" s="3">
-        <v>8</v>
-      </c>
-      <c r="E62" s="3">
+      <c r="A62" s="5">
+        <v>45015</v>
+      </c>
+      <c r="B62" t="s">
+        <v>31</v>
+      </c>
+      <c r="C62">
+        <v>430</v>
+      </c>
+      <c r="D62">
+        <v>8</v>
+      </c>
+      <c r="E62">
         <v>12</v>
       </c>
       <c r="F62">
         <v>2</v>
       </c>
       <c r="G62">
-        <v>7</v>
+        <v>145</v>
       </c>
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A63" s="12">
-        <v>45015</v>
-      </c>
-      <c r="B63" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="C63" s="3">
-        <v>430</v>
-      </c>
-      <c r="D63" s="3">
-        <v>8</v>
-      </c>
-      <c r="E63" s="3">
+      <c r="A63" s="5">
+        <v>45015</v>
+      </c>
+      <c r="B63" t="s">
+        <v>31</v>
+      </c>
+      <c r="C63">
+        <v>430</v>
+      </c>
+      <c r="D63">
+        <v>8</v>
+      </c>
+      <c r="E63">
         <v>12</v>
       </c>
       <c r="F63">
         <v>2</v>
       </c>
       <c r="G63">
-        <v>7</v>
+        <v>145</v>
       </c>
       <c r="J63" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A64" s="12">
-        <v>45015</v>
-      </c>
-      <c r="B64" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="C64" s="3">
-        <v>430</v>
-      </c>
-      <c r="D64" s="3">
-        <v>8</v>
-      </c>
-      <c r="E64" s="3">
+      <c r="A64" s="5">
+        <v>45015</v>
+      </c>
+      <c r="B64" t="s">
+        <v>31</v>
+      </c>
+      <c r="C64">
+        <v>430</v>
+      </c>
+      <c r="D64">
+        <v>8</v>
+      </c>
+      <c r="E64">
         <v>12</v>
       </c>
       <c r="F64">
         <v>2</v>
       </c>
       <c r="G64">
-        <v>8</v>
+        <v>180</v>
       </c>
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A65" s="12">
-        <v>45015</v>
-      </c>
-      <c r="B65" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="C65" s="3">
-        <v>430</v>
-      </c>
-      <c r="D65" s="3">
-        <v>8</v>
-      </c>
-      <c r="E65" s="3">
+      <c r="A65" s="5">
+        <v>45015</v>
+      </c>
+      <c r="B65" t="s">
+        <v>31</v>
+      </c>
+      <c r="C65">
+        <v>430</v>
+      </c>
+      <c r="D65">
+        <v>8</v>
+      </c>
+      <c r="E65">
         <v>12</v>
       </c>
       <c r="F65">
         <v>2</v>
       </c>
       <c r="G65">
-        <v>8</v>
+        <v>180</v>
       </c>
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A66" s="12">
-        <v>45015</v>
-      </c>
-      <c r="B66" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="C66" s="3">
-        <v>430</v>
-      </c>
-      <c r="D66" s="3">
-        <v>8</v>
-      </c>
-      <c r="E66" s="3">
+      <c r="A66" s="5">
+        <v>45015</v>
+      </c>
+      <c r="B66" t="s">
+        <v>31</v>
+      </c>
+      <c r="C66">
+        <v>430</v>
+      </c>
+      <c r="D66">
+        <v>8</v>
+      </c>
+      <c r="E66">
         <v>12</v>
       </c>
       <c r="F66">
         <v>2</v>
       </c>
       <c r="G66">
-        <v>8</v>
+        <v>180</v>
       </c>
       <c r="J66" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A67" s="12">
-        <v>45015</v>
-      </c>
-      <c r="B67" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="C67" s="3">
-        <v>430</v>
-      </c>
-      <c r="D67" s="3">
-        <v>8</v>
-      </c>
-      <c r="E67" s="3">
+      <c r="A67" s="5">
+        <v>45015</v>
+      </c>
+      <c r="B67" t="s">
+        <v>31</v>
+      </c>
+      <c r="C67">
+        <v>430</v>
+      </c>
+      <c r="D67">
+        <v>8</v>
+      </c>
+      <c r="E67">
         <v>12</v>
       </c>
       <c r="F67">
         <v>2</v>
       </c>
       <c r="G67">
-        <v>9</v>
+        <v>215</v>
       </c>
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A68" s="12">
-        <v>45015</v>
-      </c>
-      <c r="B68" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="C68" s="3">
-        <v>430</v>
-      </c>
-      <c r="D68" s="3">
-        <v>8</v>
-      </c>
-      <c r="E68" s="3">
+      <c r="A68" s="5">
+        <v>45015</v>
+      </c>
+      <c r="B68" t="s">
+        <v>31</v>
+      </c>
+      <c r="C68">
+        <v>430</v>
+      </c>
+      <c r="D68">
+        <v>8</v>
+      </c>
+      <c r="E68">
         <v>12</v>
       </c>
       <c r="F68">
         <v>2</v>
       </c>
       <c r="G68">
-        <v>9</v>
+        <v>215</v>
       </c>
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A69" s="12">
-        <v>45015</v>
-      </c>
-      <c r="B69" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="C69" s="3">
-        <v>430</v>
-      </c>
-      <c r="D69" s="3">
-        <v>8</v>
-      </c>
-      <c r="E69" s="3">
+      <c r="A69" s="5">
+        <v>45015</v>
+      </c>
+      <c r="B69" t="s">
+        <v>31</v>
+      </c>
+      <c r="C69">
+        <v>430</v>
+      </c>
+      <c r="D69">
+        <v>8</v>
+      </c>
+      <c r="E69">
         <v>12</v>
       </c>
       <c r="F69">
         <v>2</v>
       </c>
       <c r="G69">
-        <v>9</v>
+        <v>215</v>
       </c>
       <c r="J69" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A70" s="12">
-        <v>45015</v>
-      </c>
-      <c r="B70" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="C70" s="3">
-        <v>430</v>
-      </c>
-      <c r="D70" s="3">
-        <v>8</v>
-      </c>
-      <c r="E70" s="3">
+      <c r="A70" s="5">
+        <v>45015</v>
+      </c>
+      <c r="B70" t="s">
+        <v>31</v>
+      </c>
+      <c r="C70">
+        <v>430</v>
+      </c>
+      <c r="D70">
+        <v>8</v>
+      </c>
+      <c r="E70">
         <v>12</v>
       </c>
       <c r="F70">
         <v>2</v>
       </c>
       <c r="G70">
-        <v>10</v>
+        <v>250</v>
       </c>
     </row>
     <row r="71" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A71" s="12">
-        <v>45015</v>
-      </c>
-      <c r="B71" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="C71" s="3">
-        <v>430</v>
-      </c>
-      <c r="D71" s="3">
-        <v>8</v>
-      </c>
-      <c r="E71" s="3">
+      <c r="A71" s="5">
+        <v>45015</v>
+      </c>
+      <c r="B71" t="s">
+        <v>31</v>
+      </c>
+      <c r="C71">
+        <v>430</v>
+      </c>
+      <c r="D71">
+        <v>8</v>
+      </c>
+      <c r="E71">
         <v>12</v>
       </c>
       <c r="F71">
         <v>2</v>
       </c>
       <c r="G71">
-        <v>10</v>
+        <v>250</v>
       </c>
     </row>
     <row r="72" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A72" s="12">
-        <v>45015</v>
-      </c>
-      <c r="B72" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="C72" s="3">
-        <v>430</v>
-      </c>
-      <c r="D72" s="3">
-        <v>8</v>
-      </c>
-      <c r="E72" s="3">
+      <c r="A72" s="5">
+        <v>45015</v>
+      </c>
+      <c r="B72" t="s">
+        <v>31</v>
+      </c>
+      <c r="C72">
+        <v>430</v>
+      </c>
+      <c r="D72">
+        <v>8</v>
+      </c>
+      <c r="E72">
         <v>12</v>
       </c>
       <c r="F72">
         <v>2</v>
       </c>
       <c r="G72">
-        <v>10</v>
+        <v>250</v>
       </c>
       <c r="J72" t="s">
         <v>79</v>
